--- a/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
+++ b/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>机构名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>北京通州分拣中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,46 +417,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>364605</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>300</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>100</v>
       </c>
     </row>

--- a/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
+++ b/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>机构名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,13 +37,25 @@
   </si>
   <si>
     <t>区域编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,23 +429,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="18.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -444,13 +456,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -460,11 +475,34 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>300</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>364605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
+++ b/bluedragon-distribution-web/src/main/webapp/static/importFileModel/reviewWeightSpotCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通应抽查包裹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信任商家应抽查包裹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京通州分拣中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,6 +41,14 @@
   </si>
   <si>
     <t>C网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通应抽查运单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信任商家应抽查运单数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,22 +432,22 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="18.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -473,10 +473,10 @@
         <v>364605</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>300</v>
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -493,10 +493,10 @@
         <v>364605</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
